--- a/2024/2024_06_07_CB_loans/2_Money_Base_dayly_2025.xlsx
+++ b/2024/2024_06_07_CB_loans/2_Money_Base_dayly_2025.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C49BA6-80F2-4318-82FB-A293A52D66AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="605"/>
   </bookViews>
   <sheets>
     <sheet name=" Eng actual exchange rate" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -19,6 +18,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="59">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -215,11 +216,35 @@
   <si>
     <t>24.01.25</t>
   </si>
+  <si>
+    <t>27.01.25</t>
+  </si>
+  <si>
+    <t>29.01.25</t>
+  </si>
+  <si>
+    <t>30.01.25</t>
+  </si>
+  <si>
+    <t>03.02.25</t>
+  </si>
+  <si>
+    <t>04.02.25</t>
+  </si>
+  <si>
+    <t>05.02.25</t>
+  </si>
+  <si>
+    <t>06.02.25</t>
+  </si>
+  <si>
+    <t>07.02.25</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
@@ -1037,128 +1062,128 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="121" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="122">
-    <cellStyle name=" Verticals" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="_1_²ÜºÈÆø" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name=" Verticals" xfId="1"/>
+    <cellStyle name="_1_²ÜºÈÆø" xfId="2"/>
     <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
-    <cellStyle name="20% - Accent1 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="20% - Accent2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="20% - Accent3 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="20% - Accent4 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="20% - Accent5 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="20% - Accent6 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="40% - Accent1 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="40% - Accent2 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="40% - Accent3 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="40% - Accent4 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="40% - Accent5 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="40% - Accent6 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="20% - Accent1 2" xfId="4"/>
+    <cellStyle name="20% - Accent2 2" xfId="5"/>
+    <cellStyle name="20% - Accent3 2" xfId="6"/>
+    <cellStyle name="20% - Accent4 2" xfId="7"/>
+    <cellStyle name="20% - Accent5 2" xfId="8"/>
+    <cellStyle name="20% - Accent6 2" xfId="9"/>
+    <cellStyle name="40% - Accent1 2" xfId="10"/>
+    <cellStyle name="40% - Accent2 2" xfId="11"/>
+    <cellStyle name="40% - Accent3 2" xfId="12"/>
+    <cellStyle name="40% - Accent4 2" xfId="13"/>
+    <cellStyle name="40% - Accent5 2" xfId="14"/>
+    <cellStyle name="40% - Accent6 2" xfId="15"/>
     <cellStyle name="60% - Accent1" xfId="16" builtinId="32"/>
-    <cellStyle name="60% - Accent1 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="60% - Accent2 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="60% - Accent3 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="60% - Accent4 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="60% - Accent5 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="60% - Accent6 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="Accent1 - 20%" xfId="23" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="Accent1 - 40%" xfId="24" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="Accent1 - 60%" xfId="25" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="Accent1 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="Accent2 - 20%" xfId="27" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="Accent2 - 40%" xfId="28" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="Accent2 - 60%" xfId="29" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="Accent2 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="Accent3 - 20%" xfId="31" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="Accent3 - 40%" xfId="32" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="Accent3 - 60%" xfId="33" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="Accent3 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="Accent4 - 20%" xfId="35" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="Accent4 - 40%" xfId="36" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="Accent4 - 60%" xfId="37" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="Accent4 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="Accent5 - 20%" xfId="39" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="Accent5 - 40%" xfId="40" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="Accent5 - 60%" xfId="41" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="Accent5 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="Accent6 - 20%" xfId="43" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="Accent6 - 40%" xfId="44" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="Accent6 - 60%" xfId="45" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
-    <cellStyle name="Accent6 2" xfId="46" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
-    <cellStyle name="al_laroux_7_laroux_1_²ðò²Ê´²ÜÎ" xfId="47" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
-    <cellStyle name="Bad 2" xfId="48" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="Body" xfId="49" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
-    <cellStyle name="Calculation 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="Check Cell 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="60% - Accent1 2" xfId="17"/>
+    <cellStyle name="60% - Accent2 2" xfId="18"/>
+    <cellStyle name="60% - Accent3 2" xfId="19"/>
+    <cellStyle name="60% - Accent4 2" xfId="20"/>
+    <cellStyle name="60% - Accent5 2" xfId="21"/>
+    <cellStyle name="60% - Accent6 2" xfId="22"/>
+    <cellStyle name="Accent1 - 20%" xfId="23"/>
+    <cellStyle name="Accent1 - 40%" xfId="24"/>
+    <cellStyle name="Accent1 - 60%" xfId="25"/>
+    <cellStyle name="Accent1 2" xfId="26"/>
+    <cellStyle name="Accent2 - 20%" xfId="27"/>
+    <cellStyle name="Accent2 - 40%" xfId="28"/>
+    <cellStyle name="Accent2 - 60%" xfId="29"/>
+    <cellStyle name="Accent2 2" xfId="30"/>
+    <cellStyle name="Accent3 - 20%" xfId="31"/>
+    <cellStyle name="Accent3 - 40%" xfId="32"/>
+    <cellStyle name="Accent3 - 60%" xfId="33"/>
+    <cellStyle name="Accent3 2" xfId="34"/>
+    <cellStyle name="Accent4 - 20%" xfId="35"/>
+    <cellStyle name="Accent4 - 40%" xfId="36"/>
+    <cellStyle name="Accent4 - 60%" xfId="37"/>
+    <cellStyle name="Accent4 2" xfId="38"/>
+    <cellStyle name="Accent5 - 20%" xfId="39"/>
+    <cellStyle name="Accent5 - 40%" xfId="40"/>
+    <cellStyle name="Accent5 - 60%" xfId="41"/>
+    <cellStyle name="Accent5 2" xfId="42"/>
+    <cellStyle name="Accent6 - 20%" xfId="43"/>
+    <cellStyle name="Accent6 - 40%" xfId="44"/>
+    <cellStyle name="Accent6 - 60%" xfId="45"/>
+    <cellStyle name="Accent6 2" xfId="46"/>
+    <cellStyle name="al_laroux_7_laroux_1_²ðò²Ê´²ÜÎ" xfId="47"/>
+    <cellStyle name="Bad 2" xfId="48"/>
+    <cellStyle name="Body" xfId="49"/>
+    <cellStyle name="Calculation 2" xfId="50"/>
+    <cellStyle name="Check Cell 2" xfId="51"/>
     <cellStyle name="Comma" xfId="52" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="53" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="Comma 3" xfId="54" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="Dezimal [0]_laroux" xfId="55" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
-    <cellStyle name="Dezimal_laroux" xfId="56" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="Emphasis 1" xfId="57" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="Emphasis 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="Emphasis 3" xfId="59" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="Euro" xfId="60" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="Explanatory Text 2" xfId="61" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="Good 2" xfId="62" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
-    <cellStyle name="Heading 1 2" xfId="63" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="Heading 2 2" xfId="64" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="Heading 3 2" xfId="65" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="Heading 4 2" xfId="66" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="Comma 2" xfId="53"/>
+    <cellStyle name="Comma 3" xfId="54"/>
+    <cellStyle name="Dezimal [0]_laroux" xfId="55"/>
+    <cellStyle name="Dezimal_laroux" xfId="56"/>
+    <cellStyle name="Emphasis 1" xfId="57"/>
+    <cellStyle name="Emphasis 2" xfId="58"/>
+    <cellStyle name="Emphasis 3" xfId="59"/>
+    <cellStyle name="Euro" xfId="60"/>
+    <cellStyle name="Explanatory Text 2" xfId="61"/>
+    <cellStyle name="Good 2" xfId="62"/>
+    <cellStyle name="Heading 1 2" xfId="63"/>
+    <cellStyle name="Heading 2 2" xfId="64"/>
+    <cellStyle name="Heading 3 2" xfId="65"/>
+    <cellStyle name="Heading 4 2" xfId="66"/>
     <cellStyle name="Hyperlink" xfId="121" builtinId="8"/>
-    <cellStyle name="Îáû÷íûé_AMD" xfId="67" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
-    <cellStyle name="Input 2" xfId="68" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
-    <cellStyle name="Linked Cell 2" xfId="69" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
-    <cellStyle name="Milliers [0]_laroux" xfId="70" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
-    <cellStyle name="Milliers_laroux" xfId="71" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
-    <cellStyle name="Neutral 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
-    <cellStyle name="no dec" xfId="73" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="Îáû÷íûé_AMD" xfId="67"/>
+    <cellStyle name="Input 2" xfId="68"/>
+    <cellStyle name="Linked Cell 2" xfId="69"/>
+    <cellStyle name="Milliers [0]_laroux" xfId="70"/>
+    <cellStyle name="Milliers_laroux" xfId="71"/>
+    <cellStyle name="Neutral 2" xfId="72"/>
+    <cellStyle name="no dec" xfId="73"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal - Style1" xfId="74" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
-    <cellStyle name="Normal 10" xfId="75" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
-    <cellStyle name="Normal 10 2" xfId="76" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
-    <cellStyle name="Normal 11" xfId="77" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="Normal 11 2" xfId="78" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="Normal 12" xfId="79" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="Normal 12 2" xfId="80" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
-    <cellStyle name="Normal 13" xfId="81" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
-    <cellStyle name="Normal 13 2" xfId="82" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
-    <cellStyle name="Normal 14" xfId="83" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
-    <cellStyle name="Normal 14 2" xfId="84" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
-    <cellStyle name="Normal 16" xfId="85" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
-    <cellStyle name="Normal 17" xfId="86" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="Normal 18" xfId="87" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
-    <cellStyle name="Normal 19" xfId="88" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
-    <cellStyle name="Normal 2 10" xfId="89" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
-    <cellStyle name="Normal 2 11" xfId="90" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
-    <cellStyle name="Normal 2 2" xfId="91" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
-    <cellStyle name="Normal 2 3" xfId="92" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
-    <cellStyle name="Normal 2 4" xfId="93" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
-    <cellStyle name="Normal 2 5" xfId="94" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
-    <cellStyle name="Normal 2 6" xfId="95" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
-    <cellStyle name="Normal 2 7" xfId="96" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
-    <cellStyle name="Normal 2 8" xfId="97" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
-    <cellStyle name="Normal 2 9" xfId="98" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
-    <cellStyle name="Normal 20" xfId="99" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
-    <cellStyle name="Normal 21" xfId="100" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
-    <cellStyle name="Normal 22" xfId="101" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
-    <cellStyle name="Normal 23" xfId="102" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
-    <cellStyle name="Normal 3 2" xfId="103" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
-    <cellStyle name="Normal 5 2" xfId="104" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
-    <cellStyle name="Normal 6 2" xfId="105" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
-    <cellStyle name="Normal 7 2" xfId="106" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
-    <cellStyle name="Note 2" xfId="107" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
-    <cellStyle name="Output 2" xfId="108" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
-    <cellStyle name="Percent 2" xfId="109" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
-    <cellStyle name="Percent 3" xfId="110" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
-    <cellStyle name="Sheet Title" xfId="111" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
-    <cellStyle name="Standard_laroux" xfId="112" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
-    <cellStyle name="Style 1" xfId="113" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
-    <cellStyle name="Style 2" xfId="114" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
-    <cellStyle name="Title 2" xfId="115" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
-    <cellStyle name="Total 2" xfId="116" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
-    <cellStyle name="ux" xfId="117" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
-    <cellStyle name="Währung [0]_laroux" xfId="118" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
-    <cellStyle name="Währung_laroux" xfId="119" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
-    <cellStyle name="Warning Text 2" xfId="120" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="Normal - Style1" xfId="74"/>
+    <cellStyle name="Normal 10" xfId="75"/>
+    <cellStyle name="Normal 10 2" xfId="76"/>
+    <cellStyle name="Normal 11" xfId="77"/>
+    <cellStyle name="Normal 11 2" xfId="78"/>
+    <cellStyle name="Normal 12" xfId="79"/>
+    <cellStyle name="Normal 12 2" xfId="80"/>
+    <cellStyle name="Normal 13" xfId="81"/>
+    <cellStyle name="Normal 13 2" xfId="82"/>
+    <cellStyle name="Normal 14" xfId="83"/>
+    <cellStyle name="Normal 14 2" xfId="84"/>
+    <cellStyle name="Normal 16" xfId="85"/>
+    <cellStyle name="Normal 17" xfId="86"/>
+    <cellStyle name="Normal 18" xfId="87"/>
+    <cellStyle name="Normal 19" xfId="88"/>
+    <cellStyle name="Normal 2 10" xfId="89"/>
+    <cellStyle name="Normal 2 11" xfId="90"/>
+    <cellStyle name="Normal 2 2" xfId="91"/>
+    <cellStyle name="Normal 2 3" xfId="92"/>
+    <cellStyle name="Normal 2 4" xfId="93"/>
+    <cellStyle name="Normal 2 5" xfId="94"/>
+    <cellStyle name="Normal 2 6" xfId="95"/>
+    <cellStyle name="Normal 2 7" xfId="96"/>
+    <cellStyle name="Normal 2 8" xfId="97"/>
+    <cellStyle name="Normal 2 9" xfId="98"/>
+    <cellStyle name="Normal 20" xfId="99"/>
+    <cellStyle name="Normal 21" xfId="100"/>
+    <cellStyle name="Normal 22" xfId="101"/>
+    <cellStyle name="Normal 23" xfId="102"/>
+    <cellStyle name="Normal 3 2" xfId="103"/>
+    <cellStyle name="Normal 5 2" xfId="104"/>
+    <cellStyle name="Normal 6 2" xfId="105"/>
+    <cellStyle name="Normal 7 2" xfId="106"/>
+    <cellStyle name="Note 2" xfId="107"/>
+    <cellStyle name="Output 2" xfId="108"/>
+    <cellStyle name="Percent 2" xfId="109"/>
+    <cellStyle name="Percent 3" xfId="110"/>
+    <cellStyle name="Sheet Title" xfId="111"/>
+    <cellStyle name="Standard_laroux" xfId="112"/>
+    <cellStyle name="Style 1" xfId="113"/>
+    <cellStyle name="Style 2" xfId="114"/>
+    <cellStyle name="Title 2" xfId="115"/>
+    <cellStyle name="Total 2" xfId="116"/>
+    <cellStyle name="ux" xfId="117"/>
+    <cellStyle name="Währung [0]_laroux" xfId="118"/>
+    <cellStyle name="Währung_laroux" xfId="119"/>
+    <cellStyle name="Warning Text 2" xfId="120"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1317,23 +1342,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1369,23 +1377,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1561,14 +1552,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AL63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="J7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="H7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="M19" sqref="M19"/>
+      <selection pane="bottomRight" activeCell="AP13" sqref="AP13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1578,27 +1569,29 @@
     <col min="3" max="3" width="16" style="7" customWidth="1"/>
     <col min="4" max="4" width="16" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="29" width="16" style="7" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="11.5703125" style="7"/>
+    <col min="6" max="14" width="16" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="32" width="16" style="7" hidden="1" customWidth="1"/>
+    <col min="33" max="38" width="16" style="7" bestFit="1" customWidth="1"/>
+    <col min="39" max="16384" width="11.5703125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="24" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" s="24" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="24" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" s="24" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
     </row>
-    <row r="4" spans="1:29" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
     </row>
-    <row r="5" spans="1:29" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -1686,8 +1679,35 @@
       <c r="AC5" s="10" t="s">
         <v>50</v>
       </c>
+      <c r="AD5" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE5" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF5" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG5" s="10">
+        <v>45688</v>
+      </c>
+      <c r="AH5" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI5" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ5" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK5" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL5" s="10" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -1717,8 +1737,17 @@
       <c r="AA6" s="12"/>
       <c r="AB6" s="12"/>
       <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="12"/>
+      <c r="AK6" s="12"/>
+      <c r="AL6" s="12"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -1806,8 +1835,35 @@
       <c r="AC7" s="13">
         <v>1031618.259677281</v>
       </c>
+      <c r="AD7" s="13">
+        <v>1026361.5854273866</v>
+      </c>
+      <c r="AE7" s="13">
+        <v>1012673.687691248</v>
+      </c>
+      <c r="AF7" s="13">
+        <v>1015284.012544092</v>
+      </c>
+      <c r="AG7" s="13">
+        <v>1013520.2271043448</v>
+      </c>
+      <c r="AH7" s="13">
+        <v>1002678.3086716735</v>
+      </c>
+      <c r="AI7" s="13">
+        <v>1008334.7661672876</v>
+      </c>
+      <c r="AJ7" s="13">
+        <v>1008854.0493906902</v>
+      </c>
+      <c r="AK7" s="13">
+        <v>1030949.7806170967</v>
+      </c>
+      <c r="AL7" s="13">
+        <v>1032757.912501425</v>
+      </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -1895,8 +1951,35 @@
       <c r="AC8" s="13">
         <v>737407.33781921898</v>
       </c>
+      <c r="AD8" s="13">
+        <v>734815.05864211323</v>
+      </c>
+      <c r="AE8" s="13">
+        <v>715334.24330385192</v>
+      </c>
+      <c r="AF8" s="13">
+        <v>712854.53350800811</v>
+      </c>
+      <c r="AG8" s="13">
+        <v>712165.59325345524</v>
+      </c>
+      <c r="AH8" s="13">
+        <v>761766.32433732646</v>
+      </c>
+      <c r="AI8" s="13">
+        <v>754474.28042461223</v>
+      </c>
+      <c r="AJ8" s="13">
+        <v>760369.01321870973</v>
+      </c>
+      <c r="AK8" s="13">
+        <v>749339.53250970342</v>
+      </c>
+      <c r="AL8" s="13">
+        <v>759008.84884377499</v>
+      </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -1984,8 +2067,35 @@
       <c r="AC9" s="13">
         <v>-566613.47141340002</v>
       </c>
+      <c r="AD9" s="13">
+        <v>-568757.55106919981</v>
+      </c>
+      <c r="AE9" s="13">
+        <v>-554939.74585349986</v>
+      </c>
+      <c r="AF9" s="13">
+        <v>-557890.60368079995</v>
+      </c>
+      <c r="AG9" s="13">
+        <v>-559878.05069180008</v>
+      </c>
+      <c r="AH9" s="13">
+        <v>-505981.79844550003</v>
+      </c>
+      <c r="AI9" s="13">
+        <v>-512103.40591470001</v>
+      </c>
+      <c r="AJ9" s="13">
+        <v>-508347.56233460008</v>
+      </c>
+      <c r="AK9" s="13">
+        <v>-521121.40000169992</v>
+      </c>
+      <c r="AL9" s="13">
+        <v>-510667.29164730001</v>
+      </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
@@ -2073,8 +2183,35 @@
       <c r="AC10" s="13">
         <v>888548.95038190018</v>
       </c>
+      <c r="AD10" s="13">
+        <v>889038.05105899996</v>
+      </c>
+      <c r="AE10" s="13">
+        <v>855141.10522239993</v>
+      </c>
+      <c r="AF10" s="13">
+        <v>855300.24220669991</v>
+      </c>
+      <c r="AG10" s="13">
+        <v>855459.3883448001</v>
+      </c>
+      <c r="AH10" s="13">
+        <v>855934.50867269991</v>
+      </c>
+      <c r="AI10" s="13">
+        <v>856234.5712472999</v>
+      </c>
+      <c r="AJ10" s="13">
+        <v>855629.5923101001</v>
+      </c>
+      <c r="AK10" s="13">
+        <v>855785.34534660005</v>
+      </c>
+      <c r="AL10" s="13">
+        <v>854600.90225029993</v>
+      </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -2162,8 +2299,35 @@
       <c r="AC11" s="13">
         <v>575220.88967900001</v>
       </c>
+      <c r="AD11" s="13">
+        <v>575564.18077500002</v>
+      </c>
+      <c r="AE11" s="13">
+        <v>545000</v>
+      </c>
+      <c r="AF11" s="13">
+        <v>545108.42057900003</v>
+      </c>
+      <c r="AG11" s="13">
+        <v>545216.84115900006</v>
+      </c>
+      <c r="AH11" s="13">
+        <v>545542.10289800004</v>
+      </c>
+      <c r="AI11" s="13">
+        <v>545650.52347599994</v>
+      </c>
+      <c r="AJ11" s="13">
+        <v>545000</v>
+      </c>
+      <c r="AK11" s="13">
+        <v>545104.94539300003</v>
+      </c>
+      <c r="AL11" s="13">
+        <v>545209.89078400005</v>
+      </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -2251,8 +2415,35 @@
       <c r="AC12" s="13">
         <v>555220.88967900001</v>
       </c>
+      <c r="AD12" s="13">
+        <v>555552.22419700003</v>
+      </c>
+      <c r="AE12" s="13">
+        <v>545000</v>
+      </c>
+      <c r="AF12" s="13">
+        <v>545108.42057900003</v>
+      </c>
+      <c r="AG12" s="13">
+        <v>545216.84115899995</v>
+      </c>
+      <c r="AH12" s="13">
+        <v>545542.10289800004</v>
+      </c>
+      <c r="AI12" s="13">
+        <v>545650.52347599994</v>
+      </c>
+      <c r="AJ12" s="13">
+        <v>545000</v>
+      </c>
+      <c r="AK12" s="13">
+        <v>545104.94539300003</v>
+      </c>
+      <c r="AL12" s="13">
+        <v>545209.89078400005</v>
+      </c>
     </row>
-    <row r="13" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
@@ -2340,8 +2531,35 @@
       <c r="AC13" s="13">
         <v>0</v>
       </c>
+      <c r="AD13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
@@ -2429,8 +2647,35 @@
       <c r="AC14" s="13">
         <v>20000</v>
       </c>
+      <c r="AD14" s="13">
+        <v>20011.956578000001</v>
+      </c>
+      <c r="AE14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
@@ -2518,8 +2763,35 @@
       <c r="AC15" s="13">
         <v>0</v>
       </c>
+      <c r="AD15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
@@ -2607,8 +2879,35 @@
       <c r="AC16" s="13">
         <v>0</v>
       </c>
+      <c r="AD16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
@@ -2696,8 +2995,35 @@
       <c r="AC17" s="13">
         <v>0</v>
       </c>
+      <c r="AD17" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="13">
+        <v>-3000.4315068000001</v>
+      </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
@@ -2785,8 +3111,35 @@
       <c r="AC18" s="13">
         <v>0</v>
       </c>
+      <c r="AD18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -2874,8 +3227,35 @@
       <c r="AC19" s="13">
         <v>0</v>
       </c>
+      <c r="AD19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>11</v>
       </c>
@@ -2963,8 +3343,35 @@
       <c r="AC20" s="13">
         <v>0</v>
       </c>
+      <c r="AD20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
@@ -3052,8 +3459,35 @@
       <c r="AC21" s="13">
         <v>0</v>
       </c>
+      <c r="AD21" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -3141,8 +3575,35 @@
       <c r="AC22" s="13">
         <v>415387.36423977994</v>
       </c>
+      <c r="AD22" s="13">
+        <v>415387.36423977994</v>
+      </c>
+      <c r="AE22" s="13">
+        <v>415387.36423977994</v>
+      </c>
+      <c r="AF22" s="13">
+        <v>415387.36423977994</v>
+      </c>
+      <c r="AG22" s="13">
+        <v>416584.25560045522</v>
+      </c>
+      <c r="AH22" s="13">
+        <v>411813.61411012651</v>
+      </c>
+      <c r="AI22" s="13">
+        <v>410343.11509201233</v>
+      </c>
+      <c r="AJ22" s="13">
+        <v>413086.98324320978</v>
+      </c>
+      <c r="AK22" s="13">
+        <v>414675.58716480318</v>
+      </c>
+      <c r="AL22" s="13">
+        <v>415075.23824077495</v>
+      </c>
     </row>
-    <row r="23" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:38" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="19" t="s">
         <v>4</v>
       </c>
@@ -3230,8 +3691,35 @@
       <c r="AC23" s="20">
         <v>1769025.5974965</v>
       </c>
+      <c r="AD23" s="20">
+        <v>1761176.6440694998</v>
+      </c>
+      <c r="AE23" s="20">
+        <v>1728007.9309950999</v>
+      </c>
+      <c r="AF23" s="20">
+        <v>1728138.5460521001</v>
+      </c>
+      <c r="AG23" s="20">
+        <v>1725685.8203578</v>
+      </c>
+      <c r="AH23" s="20">
+        <v>1764444.633009</v>
+      </c>
+      <c r="AI23" s="20">
+        <v>1762809.0465918998</v>
+      </c>
+      <c r="AJ23" s="20">
+        <v>1769223.0626093999</v>
+      </c>
+      <c r="AK23" s="20">
+        <v>1780289.3131268001</v>
+      </c>
+      <c r="AL23" s="20">
+        <v>1791766.7613452</v>
+      </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>5</v>
       </c>
@@ -3319,8 +3807,35 @@
       <c r="AC24" s="13">
         <v>928199.02531249984</v>
       </c>
+      <c r="AD24" s="13">
+        <v>929877.60881249991</v>
+      </c>
+      <c r="AE24" s="13">
+        <v>926641.65366749989</v>
+      </c>
+      <c r="AF24" s="13">
+        <v>924857.98574819998</v>
+      </c>
+      <c r="AG24" s="13">
+        <v>926779.10901819996</v>
+      </c>
+      <c r="AH24" s="13">
+        <v>931720.02262940002</v>
+      </c>
+      <c r="AI24" s="13">
+        <v>933741.6858794</v>
+      </c>
+      <c r="AJ24" s="13">
+        <v>936862.53310940007</v>
+      </c>
+      <c r="AK24" s="13">
+        <v>940835.78110939998</v>
+      </c>
+      <c r="AL24" s="13">
+        <v>945542.41051940003</v>
+      </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>14</v>
       </c>
@@ -3408,8 +3923,35 @@
       <c r="AC25" s="13">
         <v>347317.38622870005</v>
       </c>
+      <c r="AD25" s="13">
+        <v>362719.80933620001</v>
+      </c>
+      <c r="AE25" s="13">
+        <v>332114.33876150002</v>
+      </c>
+      <c r="AF25" s="13">
+        <v>331449.34616020002</v>
+      </c>
+      <c r="AG25" s="13">
+        <v>327241.57856640004</v>
+      </c>
+      <c r="AH25" s="13">
+        <v>365155.71864320006</v>
+      </c>
+      <c r="AI25" s="13">
+        <v>356630.08694229997</v>
+      </c>
+      <c r="AJ25" s="13">
+        <v>362316.38997449999</v>
+      </c>
+      <c r="AK25" s="13">
+        <v>371163.90408070001</v>
+      </c>
+      <c r="AL25" s="13">
+        <v>377653.36221950001</v>
+      </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>13</v>
       </c>
@@ -3497,8 +4039,35 @@
       <c r="AC26" s="13">
         <v>459673.11496940005</v>
       </c>
+      <c r="AD26" s="13">
+        <v>456065.60722020001</v>
+      </c>
+      <c r="AE26" s="13">
+        <v>455832.47584809997</v>
+      </c>
+      <c r="AF26" s="13">
+        <v>455396.4869358</v>
+      </c>
+      <c r="AG26" s="13">
+        <v>458533.65858559997</v>
+      </c>
+      <c r="AH26" s="13">
+        <v>454056.5323131</v>
+      </c>
+      <c r="AI26" s="13">
+        <v>459398.09820270003</v>
+      </c>
+      <c r="AJ26" s="13">
+        <v>457676.769898</v>
+      </c>
+      <c r="AK26" s="13">
+        <v>455777.86847940006</v>
+      </c>
+      <c r="AL26" s="13">
+        <v>455139.19663040002</v>
+      </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>32</v>
       </c>
@@ -3568,8 +4137,35 @@
       <c r="AC27" s="13">
         <v>1.2990318999999999</v>
       </c>
+      <c r="AD27" s="13">
+        <v>1.2990318999999999</v>
+      </c>
+      <c r="AE27" s="13">
+        <v>1.2990318999999999</v>
+      </c>
+      <c r="AF27" s="13">
+        <v>1.2990318999999999</v>
+      </c>
+      <c r="AG27" s="13">
+        <v>1.2990318999999999</v>
+      </c>
+      <c r="AH27" s="13">
+        <v>1.2934928999999999</v>
+      </c>
+      <c r="AI27" s="13">
+        <v>1.2876183000000001</v>
+      </c>
+      <c r="AJ27" s="13">
+        <v>1.2876183000000001</v>
+      </c>
+      <c r="AK27" s="13">
+        <v>1.2876183000000001</v>
+      </c>
+      <c r="AL27" s="13">
+        <v>1.2793298</v>
+      </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>33</v>
       </c>
@@ -3639,8 +4235,35 @@
       <c r="AC28" s="13">
         <v>516.50338120000004</v>
       </c>
+      <c r="AD28" s="13">
+        <v>715.09523310000009</v>
+      </c>
+      <c r="AE28" s="13">
+        <v>713.79658100000006</v>
+      </c>
+      <c r="AF28" s="13">
+        <v>713.12632370000006</v>
+      </c>
+      <c r="AG28" s="13">
+        <v>711.84407580000004</v>
+      </c>
+      <c r="AH28" s="13">
+        <v>709.76646200000005</v>
+      </c>
+      <c r="AI28" s="13">
+        <v>710.23607370000002</v>
+      </c>
+      <c r="AJ28" s="13">
+        <v>710.99746470000002</v>
+      </c>
+      <c r="AK28" s="13">
+        <v>710.82031840000002</v>
+      </c>
+      <c r="AL28" s="13">
+        <v>710.91545539999993</v>
+      </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>6</v>
       </c>
@@ -3728,8 +4351,35 @@
       <c r="AC29" s="13">
         <v>33318.268572800065</v>
       </c>
+      <c r="AD29" s="13">
+        <v>11797.224435599879</v>
+      </c>
+      <c r="AE29" s="13">
+        <v>12704.367105100053</v>
+      </c>
+      <c r="AF29" s="13">
+        <v>15720.301852300143</v>
+      </c>
+      <c r="AG29" s="13">
+        <v>12418.331079900019</v>
+      </c>
+      <c r="AH29" s="13">
+        <v>12801.299468399902</v>
+      </c>
+      <c r="AI29" s="13">
+        <v>12327.651875499827</v>
+      </c>
+      <c r="AJ29" s="13">
+        <v>11655.084544499836</v>
+      </c>
+      <c r="AK29" s="13">
+        <v>11799.651520600068</v>
+      </c>
+      <c r="AL29" s="13">
+        <v>12719.597190699949</v>
+      </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>7</v>
       </c>
@@ -3817,8 +4467,35 @@
       <c r="AC30" s="13">
         <v>29427.382034199996</v>
       </c>
+      <c r="AD30" s="13">
+        <v>8323.4144801000002</v>
+      </c>
+      <c r="AE30" s="13">
+        <v>8442.0291973999992</v>
+      </c>
+      <c r="AF30" s="13">
+        <v>8151.310113999999</v>
+      </c>
+      <c r="AG30" s="13">
+        <v>8271.0043012999995</v>
+      </c>
+      <c r="AH30" s="13">
+        <v>8512.1420793999987</v>
+      </c>
+      <c r="AI30" s="13">
+        <v>8855.8349147999998</v>
+      </c>
+      <c r="AJ30" s="13">
+        <v>7950.2020008</v>
+      </c>
+      <c r="AK30" s="13">
+        <v>8052.9137848999999</v>
+      </c>
+      <c r="AL30" s="13">
+        <v>8068.8463656000004</v>
+      </c>
     </row>
-    <row r="31" spans="1:29" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>8</v>
       </c>
@@ -3906,8 +4583,35 @@
       <c r="AC31" s="13">
         <v>3890.8865386000002</v>
       </c>
+      <c r="AD31" s="13">
+        <v>3473.8099555000003</v>
+      </c>
+      <c r="AE31" s="13">
+        <v>4262.3379076999991</v>
+      </c>
+      <c r="AF31" s="13">
+        <v>7568.9917383000002</v>
+      </c>
+      <c r="AG31" s="13">
+        <v>4147.3267785999997</v>
+      </c>
+      <c r="AH31" s="13">
+        <v>4289.1573890000009</v>
+      </c>
+      <c r="AI31" s="13">
+        <v>3471.8169606999995</v>
+      </c>
+      <c r="AJ31" s="13">
+        <v>3704.8825436999996</v>
+      </c>
+      <c r="AK31" s="13">
+        <v>3746.7377356999996</v>
+      </c>
+      <c r="AL31" s="13">
+        <v>4650.7508250999999</v>
+      </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -3937,8 +4641,17 @@
       <c r="AA32" s="14"/>
       <c r="AB32" s="14"/>
       <c r="AC32" s="14"/>
+      <c r="AD32" s="14"/>
+      <c r="AE32" s="14"/>
+      <c r="AF32" s="14"/>
+      <c r="AG32" s="14"/>
+      <c r="AH32" s="14"/>
+      <c r="AI32" s="14"/>
+      <c r="AJ32" s="14"/>
+      <c r="AK32" s="14"/>
+      <c r="AL32" s="14"/>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>15</v>
       </c>
@@ -3970,8 +4683,17 @@
       <c r="AA33" s="15"/>
       <c r="AB33" s="15"/>
       <c r="AC33" s="15"/>
+      <c r="AD33" s="15"/>
+      <c r="AE33" s="15"/>
+      <c r="AF33" s="15"/>
+      <c r="AG33" s="15"/>
+      <c r="AH33" s="15"/>
+      <c r="AI33" s="15"/>
+      <c r="AJ33" s="15"/>
+      <c r="AK33" s="15"/>
+      <c r="AL33" s="15"/>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -4001,8 +4723,17 @@
       <c r="AA34" s="16"/>
       <c r="AB34" s="16"/>
       <c r="AC34" s="16"/>
+      <c r="AD34" s="16"/>
+      <c r="AE34" s="16"/>
+      <c r="AF34" s="16"/>
+      <c r="AG34" s="16"/>
+      <c r="AH34" s="16"/>
+      <c r="AI34" s="16"/>
+      <c r="AJ34" s="16"/>
+      <c r="AK34" s="16"/>
+      <c r="AL34" s="16"/>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>26</v>
       </c>
@@ -4012,7 +4743,7 @@
         <v>-10609.381967150373</v>
       </c>
       <c r="D35" s="14">
-        <f t="shared" ref="D35:AC35" si="1">D7-C7</f>
+        <f t="shared" ref="D35:AL35" si="1">D7-C7</f>
         <v>-76669.83926140063</v>
       </c>
       <c r="E35" s="14">
@@ -4115,8 +4846,44 @@
         <f t="shared" si="1"/>
         <v>1893.021974183619</v>
       </c>
+      <c r="AD35" s="14">
+        <f t="shared" si="1"/>
+        <v>-5256.6742498944513</v>
+      </c>
+      <c r="AE35" s="14">
+        <f t="shared" si="1"/>
+        <v>-13687.897736138548</v>
+      </c>
+      <c r="AF35" s="14">
+        <f t="shared" si="1"/>
+        <v>2610.3248528440017</v>
+      </c>
+      <c r="AG35" s="14">
+        <f t="shared" ref="AG35:AG44" si="2">AG7-N7</f>
+        <v>-126011.80195244623</v>
+      </c>
+      <c r="AH35" s="14">
+        <f t="shared" si="1"/>
+        <v>-10841.918432671227</v>
+      </c>
+      <c r="AI35" s="14">
+        <f t="shared" si="1"/>
+        <v>5656.4574956140714</v>
+      </c>
+      <c r="AJ35" s="14">
+        <f t="shared" si="1"/>
+        <v>519.28322340257</v>
+      </c>
+      <c r="AK35" s="14">
+        <f t="shared" si="1"/>
+        <v>22095.731226406526</v>
+      </c>
+      <c r="AL35" s="14">
+        <f t="shared" si="1"/>
+        <v>1808.1318843283225</v>
+      </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>21</v>
       </c>
@@ -4126,111 +4893,147 @@
         <v>-155067.73181294976</v>
       </c>
       <c r="D36" s="14">
-        <f t="shared" ref="D36:AC36" si="2">D8-C8</f>
+        <f t="shared" ref="D36:AL36" si="3">D8-C8</f>
         <v>46514.19802570052</v>
       </c>
       <c r="E36" s="14">
+        <f t="shared" si="3"/>
+        <v>146475.20134647016</v>
+      </c>
+      <c r="F36" s="14">
+        <f t="shared" si="3"/>
+        <v>17306.529743600287</v>
+      </c>
+      <c r="G36" s="14">
+        <f t="shared" si="3"/>
+        <v>-69073.712824578979</v>
+      </c>
+      <c r="H36" s="14">
+        <f t="shared" si="3"/>
+        <v>148092.86802302022</v>
+      </c>
+      <c r="I36" s="14">
+        <f t="shared" si="3"/>
+        <v>-181510.20651671605</v>
+      </c>
+      <c r="J36" s="14">
+        <f t="shared" si="3"/>
+        <v>22007.517826593365</v>
+      </c>
+      <c r="K36" s="14">
+        <f t="shared" si="3"/>
+        <v>147725.28791292151</v>
+      </c>
+      <c r="L36" s="14">
+        <f t="shared" si="3"/>
+        <v>-178202.28687380999</v>
+      </c>
+      <c r="M36" s="14">
+        <f t="shared" si="3"/>
+        <v>-78233.569365141448</v>
+      </c>
+      <c r="N36" s="14">
+        <f t="shared" si="3"/>
+        <v>366415.6666256371</v>
+      </c>
+      <c r="O36" s="14">
+        <f t="shared" si="3"/>
+        <v>-380181.98682155507</v>
+      </c>
+      <c r="P36" s="14">
+        <f t="shared" si="3"/>
+        <v>-19251.448294850066</v>
+      </c>
+      <c r="Q36" s="14">
+        <f t="shared" si="3"/>
+        <v>-16239.260091422126</v>
+      </c>
+      <c r="R36" s="14">
+        <f t="shared" si="3"/>
+        <v>-6358.0136027333792</v>
+      </c>
+      <c r="S36" s="14">
+        <f t="shared" si="3"/>
+        <v>-5129.1160917556845</v>
+      </c>
+      <c r="T36" s="14">
+        <f t="shared" si="3"/>
+        <v>-23691.955036045285</v>
+      </c>
+      <c r="U36" s="14">
+        <f t="shared" si="3"/>
+        <v>-17735.468161568977</v>
+      </c>
+      <c r="V36" s="14">
+        <f t="shared" si="3"/>
+        <v>275232.49074820918</v>
+      </c>
+      <c r="W36" s="14">
+        <f t="shared" si="3"/>
+        <v>-13922.169476686511</v>
+      </c>
+      <c r="X36" s="14">
+        <f t="shared" si="3"/>
+        <v>-48205.094197418541</v>
+      </c>
+      <c r="Y36" s="14">
+        <f t="shared" si="3"/>
+        <v>-49617.336250961293</v>
+      </c>
+      <c r="Z36" s="14">
+        <f t="shared" si="3"/>
+        <v>-10250.200492519652</v>
+      </c>
+      <c r="AA36" s="14">
+        <f t="shared" si="3"/>
+        <v>83925.260693074903</v>
+      </c>
+      <c r="AB36" s="14">
+        <f t="shared" si="3"/>
+        <v>-7086.4723662742181</v>
+      </c>
+      <c r="AC36" s="14">
+        <f t="shared" si="3"/>
+        <v>15545.543029416585</v>
+      </c>
+      <c r="AD36" s="14">
+        <f t="shared" si="3"/>
+        <v>-2592.2791771057528</v>
+      </c>
+      <c r="AE36" s="14">
+        <f t="shared" si="3"/>
+        <v>-19480.815338261309</v>
+      </c>
+      <c r="AF36" s="14">
+        <f t="shared" si="3"/>
+        <v>-2479.7097958438098</v>
+      </c>
+      <c r="AG36" s="14">
         <f t="shared" si="2"/>
-        <v>146475.20134647016</v>
-      </c>
-      <c r="F36" s="14">
-        <f t="shared" si="2"/>
-        <v>17306.529743600287</v>
-      </c>
-      <c r="G36" s="14">
-        <f t="shared" si="2"/>
-        <v>-69073.712824578979</v>
-      </c>
-      <c r="H36" s="14">
-        <f t="shared" si="2"/>
-        <v>148092.86802302022</v>
-      </c>
-      <c r="I36" s="14">
-        <f t="shared" si="2"/>
-        <v>-181510.20651671605</v>
-      </c>
-      <c r="J36" s="14">
-        <f t="shared" si="2"/>
-        <v>22007.517826593365</v>
-      </c>
-      <c r="K36" s="14">
-        <f t="shared" si="2"/>
-        <v>147725.28791292151</v>
-      </c>
-      <c r="L36" s="14">
-        <f t="shared" si="2"/>
-        <v>-178202.28687380999</v>
-      </c>
-      <c r="M36" s="14">
-        <f t="shared" si="2"/>
-        <v>-78233.569365141448</v>
-      </c>
-      <c r="N36" s="14">
-        <f t="shared" si="2"/>
-        <v>366415.6666256371</v>
-      </c>
-      <c r="O36" s="14">
-        <f t="shared" si="2"/>
-        <v>-380181.98682155507</v>
-      </c>
-      <c r="P36" s="14">
-        <f t="shared" si="2"/>
-        <v>-19251.448294850066</v>
-      </c>
-      <c r="Q36" s="14">
-        <f t="shared" si="2"/>
-        <v>-16239.260091422126</v>
-      </c>
-      <c r="R36" s="14">
-        <f t="shared" si="2"/>
-        <v>-6358.0136027333792</v>
-      </c>
-      <c r="S36" s="14">
-        <f t="shared" si="2"/>
-        <v>-5129.1160917556845</v>
-      </c>
-      <c r="T36" s="14">
-        <f t="shared" si="2"/>
-        <v>-23691.955036045285</v>
-      </c>
-      <c r="U36" s="14">
-        <f t="shared" si="2"/>
-        <v>-17735.468161568977</v>
-      </c>
-      <c r="V36" s="14">
-        <f t="shared" si="2"/>
-        <v>275232.49074820918</v>
-      </c>
-      <c r="W36" s="14">
-        <f t="shared" si="2"/>
-        <v>-13922.169476686511</v>
-      </c>
-      <c r="X36" s="14">
-        <f t="shared" si="2"/>
-        <v>-48205.094197418541</v>
-      </c>
-      <c r="Y36" s="14">
-        <f t="shared" si="2"/>
-        <v>-49617.336250961293</v>
-      </c>
-      <c r="Z36" s="14">
-        <f t="shared" si="2"/>
-        <v>-10250.200492519652</v>
-      </c>
-      <c r="AA36" s="14">
-        <f t="shared" si="2"/>
-        <v>83925.260693074903</v>
-      </c>
-      <c r="AB36" s="14">
-        <f t="shared" si="2"/>
-        <v>-7086.4723662742181</v>
-      </c>
-      <c r="AC36" s="14">
-        <f t="shared" si="2"/>
-        <v>15545.543029416585</v>
+        <v>-248206.97097885387</v>
+      </c>
+      <c r="AH36" s="14">
+        <f t="shared" si="3"/>
+        <v>49600.731083871215</v>
+      </c>
+      <c r="AI36" s="14">
+        <f t="shared" si="3"/>
+        <v>-7292.0439127142308</v>
+      </c>
+      <c r="AJ36" s="14">
+        <f t="shared" si="3"/>
+        <v>5894.7327940975083</v>
+      </c>
+      <c r="AK36" s="14">
+        <f t="shared" si="3"/>
+        <v>-11029.480709006311</v>
+      </c>
+      <c r="AL36" s="14">
+        <f t="shared" si="3"/>
+        <v>9669.3163340715691</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>2</v>
       </c>
@@ -4240,111 +5043,147 @@
         <v>-107111.0791586999</v>
       </c>
       <c r="D37" s="14">
-        <f t="shared" ref="D37:AC37" si="3">D9-C9</f>
+        <f t="shared" ref="D37:AL37" si="4">D9-C9</f>
         <v>39857.426203499839</v>
       </c>
       <c r="E37" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-38958.881267599936</v>
       </c>
       <c r="F37" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20784.307187500061</v>
       </c>
       <c r="G37" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31029.352400799922</v>
       </c>
       <c r="H37" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-49354.786950899987</v>
       </c>
       <c r="I37" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2668.2827969999635</v>
       </c>
       <c r="J37" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2617.7048847000115</v>
       </c>
       <c r="K37" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-16101.726421300089</v>
       </c>
       <c r="L37" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>62860.027044000104</v>
       </c>
       <c r="M37" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-27868.476569899998</v>
       </c>
       <c r="N37" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>48326.270609400002</v>
       </c>
       <c r="O37" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>29383.476299299917</v>
       </c>
       <c r="P37" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-3485.2060952999745</v>
       </c>
       <c r="Q37" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-5154.5127910000156</v>
       </c>
       <c r="R37" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-4236.2481201999472</v>
       </c>
       <c r="S37" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-6814.2662664001109</v>
       </c>
       <c r="T37" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9476.4847804000019</v>
       </c>
       <c r="U37" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-8820.1950827998808</v>
       </c>
       <c r="V37" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-35215.006130800059</v>
       </c>
       <c r="W37" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-14095.271098700003</v>
       </c>
       <c r="X37" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-46597.550522399892</v>
       </c>
       <c r="Y37" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-49463.773572200153</v>
       </c>
       <c r="Z37" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-9916.3844322999939</v>
       </c>
       <c r="AA37" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-852.39470449998043</v>
       </c>
       <c r="AB37" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-595.71823690016754</v>
       </c>
       <c r="AC37" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-856.07837309979368</v>
       </c>
+      <c r="AD37" s="14">
+        <f t="shared" si="4"/>
+        <v>-2144.0796557997819</v>
+      </c>
+      <c r="AE37" s="14">
+        <f t="shared" si="4"/>
+        <v>13817.805215699947</v>
+      </c>
+      <c r="AF37" s="14">
+        <f t="shared" si="4"/>
+        <v>-2950.8578273000894</v>
+      </c>
+      <c r="AG37" s="14">
+        <f t="shared" si="2"/>
+        <v>-140507.2236253001</v>
+      </c>
+      <c r="AH37" s="14">
+        <f t="shared" si="4"/>
+        <v>53896.25224630005</v>
+      </c>
+      <c r="AI37" s="14">
+        <f t="shared" si="4"/>
+        <v>-6121.607469199982</v>
+      </c>
+      <c r="AJ37" s="14">
+        <f t="shared" si="4"/>
+        <v>3755.8435800999287</v>
+      </c>
+      <c r="AK37" s="14">
+        <f t="shared" si="4"/>
+        <v>-12773.83766709984</v>
+      </c>
+      <c r="AL37" s="14">
+        <f t="shared" si="4"/>
+        <v>10454.108354399912</v>
+      </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>3</v>
       </c>
@@ -4354,111 +5193,147 @@
         <v>-51069.012459399994</v>
       </c>
       <c r="D38" s="14">
-        <f t="shared" ref="D38:AC38" si="4">D10-C10</f>
+        <f t="shared" ref="D38:AL38" si="5">D10-C10</f>
         <v>8005.8553024999565</v>
       </c>
       <c r="E38" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>179991.43552210007</v>
       </c>
       <c r="F38" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-12628.842946600053</v>
       </c>
       <c r="G38" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-98364.121486400021</v>
       </c>
       <c r="H38" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>200146.99490500009</v>
       </c>
       <c r="I38" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-170001.22576109995</v>
       </c>
       <c r="J38" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27185.359100400121</v>
       </c>
       <c r="K38" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>171797.14829879999</v>
       </c>
       <c r="L38" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-235728.40900210012</v>
       </c>
       <c r="M38" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-39778.047775200102</v>
       </c>
       <c r="N38" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>323670.38211760006</v>
       </c>
       <c r="O38" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-410629.05645659985</v>
       </c>
       <c r="P38" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-12625.226066600066</v>
       </c>
       <c r="Q38" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-13849.647271100024</v>
       </c>
       <c r="R38" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-907.00765180005692</v>
       </c>
       <c r="S38" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-635.12002259999281</v>
       </c>
       <c r="T38" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-34724.83885349991</v>
       </c>
       <c r="U38" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-6257.5736138000502</v>
       </c>
       <c r="V38" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>310400.84685849992</v>
       </c>
       <c r="W38" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1220.0482385000214</v>
       </c>
       <c r="X38" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>241.9167292000493</v>
       </c>
       <c r="Y38" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>374.38062750000972</v>
       </c>
       <c r="Z38" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>494.62169730011374</v>
       </c>
       <c r="AA38" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>86978.70531830017</v>
       </c>
       <c r="AB38" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-6719.3762021001894</v>
       </c>
       <c r="AC38" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16317.124707700103</v>
       </c>
+      <c r="AD38" s="14">
+        <f t="shared" si="5"/>
+        <v>489.10067709977739</v>
+      </c>
+      <c r="AE38" s="14">
+        <f t="shared" si="5"/>
+        <v>-33896.945836600033</v>
+      </c>
+      <c r="AF38" s="14">
+        <f t="shared" si="5"/>
+        <v>159.13698429998476</v>
+      </c>
+      <c r="AG38" s="14">
+        <f t="shared" si="2"/>
+        <v>-105849.86047519988</v>
+      </c>
+      <c r="AH38" s="14">
+        <f t="shared" si="5"/>
+        <v>475.12032789981458</v>
+      </c>
+      <c r="AI38" s="14">
+        <f t="shared" si="5"/>
+        <v>300.06257459998596</v>
+      </c>
+      <c r="AJ38" s="14">
+        <f t="shared" si="5"/>
+        <v>-604.97893719980493</v>
+      </c>
+      <c r="AK38" s="14">
+        <f t="shared" si="5"/>
+        <v>155.75303649995476</v>
+      </c>
+      <c r="AL38" s="14">
+        <f t="shared" si="5"/>
+        <v>-1184.4430963001214</v>
+      </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>17</v>
       </c>
@@ -4468,111 +5343,147 @@
         <v>-50370.300723999972</v>
       </c>
       <c r="D39" s="14">
-        <f t="shared" ref="D39:AC39" si="5">D11-C11</f>
+        <f t="shared" ref="D39:AL39" si="6">D11-C11</f>
         <v>5074.7103159999824</v>
       </c>
       <c r="E39" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>175386.89899999998</v>
       </c>
       <c r="F39" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2107.5911170000909</v>
       </c>
       <c r="G39" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-97398.683235000062</v>
       </c>
       <c r="H39" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>196353.65069500008</v>
       </c>
       <c r="I39" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-171524.16789300006</v>
       </c>
       <c r="J39" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20278.748666999978</v>
       </c>
       <c r="K39" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>167850.91402500006</v>
       </c>
       <c r="L39" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-223053.63477600005</v>
       </c>
       <c r="M39" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-44874.336375999963</v>
       </c>
       <c r="N39" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>321080.20861499989</v>
       </c>
       <c r="O39" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-412781.90015499992</v>
       </c>
       <c r="P39" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-12828.344075000001</v>
       </c>
       <c r="Q39" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-9671.6559249999991</v>
       </c>
       <c r="R39" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-957.18313299998408</v>
       </c>
       <c r="S39" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42.816870999988168</v>
       </c>
       <c r="T39" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>128.4506049999909</v>
       </c>
       <c r="U39" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42.816867000015918</v>
       </c>
       <c r="V39" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>264743.09878999996</v>
       </c>
       <c r="W39" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>95.378366999968421</v>
       </c>
       <c r="X39" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>95.378367000084836</v>
       </c>
       <c r="Y39" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>286.13510199997108</v>
       </c>
       <c r="Z39" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>95.378370999998879</v>
       </c>
       <c r="AA39" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>86927.729792999977</v>
       </c>
       <c r="AB39" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-6689.5551589999814</v>
       </c>
       <c r="AC39" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14410.444837999996</v>
       </c>
+      <c r="AD39" s="14">
+        <f t="shared" si="6"/>
+        <v>343.29109600000083</v>
+      </c>
+      <c r="AE39" s="14">
+        <f t="shared" si="6"/>
+        <v>-30564.180775000015</v>
+      </c>
+      <c r="AF39" s="14">
+        <f t="shared" si="6"/>
+        <v>108.42057900002692</v>
+      </c>
+      <c r="AG39" s="14">
+        <f t="shared" si="2"/>
+        <v>-106065.05899599986</v>
+      </c>
+      <c r="AH39" s="14">
+        <f t="shared" si="6"/>
+        <v>325.26173899997957</v>
+      </c>
+      <c r="AI39" s="14">
+        <f t="shared" si="6"/>
+        <v>108.42057799990289</v>
+      </c>
+      <c r="AJ39" s="14">
+        <f t="shared" si="6"/>
+        <v>-650.52347599994391</v>
+      </c>
+      <c r="AK39" s="14">
+        <f t="shared" si="6"/>
+        <v>104.94539300003089</v>
+      </c>
+      <c r="AL39" s="14">
+        <f t="shared" si="6"/>
+        <v>104.94539100001566</v>
+      </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>22</v>
       </c>
@@ -4582,111 +5493,147 @@
         <v>19703.07854800002</v>
       </c>
       <c r="D40" s="14">
-        <f t="shared" ref="D40:AC40" si="6">D12-C12</f>
+        <f t="shared" ref="D40:AL40" si="7">D12-C12</f>
         <v>5074.7103159999824</v>
       </c>
       <c r="E40" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>100315.49646600004</v>
       </c>
       <c r="F40" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>70178.993650999968</v>
       </c>
       <c r="G40" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-115404.43869899999</v>
       </c>
       <c r="H40" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>85239.108966999978</v>
       </c>
       <c r="I40" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-35403.870700999978</v>
       </c>
       <c r="J40" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>20278.748666999978</v>
       </c>
       <c r="K40" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-39863.920331999951</v>
       </c>
       <c r="L40" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-85352.915913000004</v>
       </c>
       <c r="M40" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25139.779118000006</v>
       </c>
       <c r="N40" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>135364.71648399998</v>
       </c>
       <c r="O40" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-465566.408024</v>
       </c>
       <c r="P40" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q40" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>215000</v>
       </c>
       <c r="R40" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>42.816866999986814</v>
       </c>
       <c r="S40" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>42.816871000017272</v>
       </c>
       <c r="T40" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>128.4506049999909</v>
       </c>
       <c r="U40" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>42.816867000015918</v>
       </c>
       <c r="V40" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>264743.09878999996</v>
       </c>
       <c r="W40" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>95.378367000026628</v>
       </c>
       <c r="X40" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>95.378366999968421</v>
       </c>
       <c r="Y40" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>286.13510200002929</v>
       </c>
       <c r="Z40" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>95.378370999998879</v>
       </c>
       <c r="AA40" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>74427.729792999977</v>
       </c>
       <c r="AB40" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>110.44484100001864</v>
       </c>
       <c r="AC40" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>110.4448379999958</v>
       </c>
+      <c r="AD40" s="14">
+        <f t="shared" si="7"/>
+        <v>331.33451800001785</v>
+      </c>
+      <c r="AE40" s="14">
+        <f t="shared" si="7"/>
+        <v>-10552.224197000032</v>
+      </c>
+      <c r="AF40" s="14">
+        <f t="shared" si="7"/>
+        <v>108.42057900002692</v>
+      </c>
+      <c r="AG40" s="14">
+        <f t="shared" si="2"/>
+        <v>79650.433134999941</v>
+      </c>
+      <c r="AH40" s="14">
+        <f t="shared" si="7"/>
+        <v>325.26173900009599</v>
+      </c>
+      <c r="AI40" s="14">
+        <f t="shared" si="7"/>
+        <v>108.42057799990289</v>
+      </c>
+      <c r="AJ40" s="14">
+        <f t="shared" si="7"/>
+        <v>-650.52347599994391</v>
+      </c>
+      <c r="AK40" s="14">
+        <f t="shared" si="7"/>
+        <v>104.94539300003089</v>
+      </c>
+      <c r="AL40" s="14">
+        <f t="shared" si="7"/>
+        <v>104.94539100001566</v>
+      </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>23</v>
       </c>
@@ -4696,111 +5643,147 @@
         <v>0</v>
       </c>
       <c r="D41" s="14">
-        <f t="shared" ref="D41:AC41" si="7">D13-C13</f>
+        <f t="shared" ref="D41:AL41" si="8">D13-C13</f>
         <v>0</v>
       </c>
       <c r="E41" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F41" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G41" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H41" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I41" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J41" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K41" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L41" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M41" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N41" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O41" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P41" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q41" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R41" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S41" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T41" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U41" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V41" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W41" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X41" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y41" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z41" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AA41" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB41" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AC41" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AD41" s="14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AE41" s="14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF41" s="14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AG41" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH41" s="14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AI41" s="14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AJ41" s="14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AK41" s="14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AL41" s="14">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>24</v>
       </c>
@@ -4810,111 +5793,147 @@
         <v>-70073.379272000006</v>
       </c>
       <c r="D42" s="14">
-        <f t="shared" ref="D42:AC42" si="8">D14-C14</f>
+        <f t="shared" ref="D42:AL42" si="9">D14-C14</f>
         <v>0</v>
       </c>
       <c r="E42" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>75071.402533999993</v>
       </c>
       <c r="F42" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-75071.402533999993</v>
       </c>
       <c r="G42" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>25005.755464000002</v>
       </c>
       <c r="H42" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>111114.541728</v>
       </c>
       <c r="I42" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-136120.297192</v>
       </c>
       <c r="J42" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K42" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>207714.83435700001</v>
       </c>
       <c r="L42" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-137700.71886300002</v>
       </c>
       <c r="M42" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-70014.115493999998</v>
       </c>
       <c r="N42" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>185715.49213100001</v>
       </c>
       <c r="O42" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>29284.507868999994</v>
       </c>
       <c r="P42" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>171.65592499999912</v>
       </c>
       <c r="Q42" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-215171.655925</v>
       </c>
       <c r="R42" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S42" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T42" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U42" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V42" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W42" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X42" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y42" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Z42" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA42" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AB42" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AC42" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>20000</v>
       </c>
+      <c r="AD42" s="14">
+        <f t="shared" si="9"/>
+        <v>11.956578000001173</v>
+      </c>
+      <c r="AE42" s="14">
+        <f t="shared" si="9"/>
+        <v>-20011.956578000001</v>
+      </c>
+      <c r="AF42" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG42" s="14">
+        <f t="shared" si="2"/>
+        <v>-185715.49213100001</v>
+      </c>
+      <c r="AH42" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AI42" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AJ42" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AK42" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AL42" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>25</v>
       </c>
@@ -4924,111 +5943,147 @@
         <v>0</v>
       </c>
       <c r="D43" s="14">
-        <f t="shared" ref="D43:AC43" si="9">D15-C15</f>
+        <f t="shared" ref="D43:AL43" si="10">D15-C15</f>
         <v>0</v>
       </c>
       <c r="E43" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F43" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7000</v>
       </c>
       <c r="G43" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-7000</v>
       </c>
       <c r="H43" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I43" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J43" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K43" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L43" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M43" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N43" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O43" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>23500</v>
       </c>
       <c r="P43" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-13000</v>
       </c>
       <c r="Q43" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-9500</v>
       </c>
       <c r="R43" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-1000</v>
       </c>
       <c r="S43" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T43" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U43" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V43" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W43" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X43" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y43" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z43" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA43" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB43" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5700</v>
       </c>
       <c r="AC43" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-5700</v>
       </c>
+      <c r="AD43" s="14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AE43" s="14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AF43" s="14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AG43" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH43" s="14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AI43" s="14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AJ43" s="14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AK43" s="14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AL43" s="14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>9</v>
       </c>
@@ -5038,111 +6093,147 @@
         <v>0</v>
       </c>
       <c r="D44" s="14">
-        <f t="shared" ref="D44:AC44" si="10">D16-C16</f>
+        <f t="shared" ref="D44:AL44" si="11">D16-C16</f>
         <v>0</v>
       </c>
       <c r="E44" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F44" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G44" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H44" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I44" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J44" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K44" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L44" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M44" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N44" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O44" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P44" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q44" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R44" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S44" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T44" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U44" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V44" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W44" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="X44" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Y44" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z44" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AA44" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AB44" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AC44" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AD44" s="14">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AE44" s="14">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AF44" s="14">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AG44" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH44" s="14">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AI44" s="14">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AJ44" s="14">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AK44" s="14">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AL44" s="14">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>10</v>
       </c>
@@ -5152,111 +6243,147 @@
         <v>0</v>
       </c>
       <c r="D45" s="14">
-        <f t="shared" ref="D45:AC45" si="11">-(D17-C17)</f>
+        <f t="shared" ref="D45:AL45" si="12">-(D17-C17)</f>
         <v>0</v>
       </c>
       <c r="E45" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F45" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G45" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H45" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I45" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J45" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K45" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1000.1639344</v>
       </c>
       <c r="L45" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-1000.1639344</v>
       </c>
       <c r="M45" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N45" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2000.6010929000001</v>
       </c>
       <c r="O45" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-2000.6010929000001</v>
       </c>
       <c r="P45" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q45" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R45" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S45" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3000.4520548</v>
       </c>
       <c r="T45" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>35005.273972700001</v>
       </c>
       <c r="U45" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7601.1452055000045</v>
       </c>
       <c r="V45" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-45606.871233000005</v>
       </c>
       <c r="W45" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="X45" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Y45" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z45" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AA45" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AB45" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AC45" s="14">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AD45" s="14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AE45" s="14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AF45" s="14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AG45" s="14">
+        <f>-(AG17-N17)</f>
+        <v>-2000.6010929000001</v>
+      </c>
+      <c r="AH45" s="14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AI45" s="14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AJ45" s="14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AK45" s="14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AL45" s="14">
+        <f t="shared" si="12"/>
+        <v>3000.4315068000001</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>12</v>
       </c>
@@ -5266,111 +6393,147 @@
         <v>0</v>
       </c>
       <c r="D46" s="14">
-        <f t="shared" ref="D46:AC46" si="12">-(D18-C18)</f>
+        <f t="shared" ref="D46:AL46" si="13">-(D18-C18)</f>
         <v>0</v>
       </c>
       <c r="E46" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F46" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G46" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H46" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I46" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J46" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K46" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L46" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M46" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N46" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O46" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P46" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q46" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R46" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S46" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T46" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U46" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V46" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="W46" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X46" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Y46" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z46" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AA46" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AB46" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC46" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AD46" s="14">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AE46" s="14">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AF46" s="14">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AG46" s="14">
+        <f>-(AG18-N18)</f>
+        <v>0</v>
+      </c>
+      <c r="AH46" s="14">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AI46" s="14">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AJ46" s="14">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AK46" s="14">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AL46" s="14">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>18</v>
       </c>
@@ -5380,111 +6543,147 @@
         <v>0</v>
       </c>
       <c r="D47" s="14">
-        <f t="shared" ref="D47:AC47" si="13">-(D19-C19)</f>
+        <f t="shared" ref="D47:AL47" si="14">-(D19-C19)</f>
         <v>0</v>
       </c>
       <c r="E47" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F47" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G47" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H47" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I47" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J47" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K47" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L47" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M47" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N47" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O47" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P47" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q47" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="R47" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S47" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="T47" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U47" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="V47" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W47" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="X47" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Y47" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Z47" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AA47" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AB47" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AC47" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AD47" s="14">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE47" s="14">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AF47" s="14">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AG47" s="14">
+        <f>-(AG19-N19)</f>
+        <v>0</v>
+      </c>
+      <c r="AH47" s="14">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AI47" s="14">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AJ47" s="14">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AK47" s="14">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AL47" s="14">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>11</v>
       </c>
@@ -5494,111 +6693,147 @@
         <v>0</v>
       </c>
       <c r="D48" s="14">
-        <f t="shared" ref="D48:AC48" si="14">-(D20-C20)</f>
+        <f t="shared" ref="D48:AL48" si="15">-(D20-C20)</f>
         <v>0</v>
       </c>
       <c r="E48" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F48" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G48" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H48" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I48" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J48" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K48" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L48" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M48" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N48" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O48" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P48" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Q48" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R48" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="S48" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T48" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U48" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V48" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="W48" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X48" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Y48" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Z48" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AA48" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB48" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AC48" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AD48" s="14">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AE48" s="14">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF48" s="14">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AG48" s="14">
+        <f>-(AG20-N20)</f>
+        <v>0</v>
+      </c>
+      <c r="AH48" s="14">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AI48" s="14">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AJ48" s="14">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AK48" s="14">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AL48" s="14">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>16</v>
       </c>
@@ -5608,111 +6843,147 @@
         <v>0</v>
       </c>
       <c r="D49" s="14">
-        <f t="shared" ref="D49:AC49" si="15">-(D21-C21)</f>
+        <f t="shared" ref="D49:AL49" si="16">-(D21-C21)</f>
         <v>0</v>
       </c>
       <c r="E49" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F49" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G49" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H49" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I49" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J49" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K49" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L49" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M49" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N49" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O49" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P49" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q49" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R49" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S49" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="T49" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U49" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="V49" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="W49" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="X49" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Y49" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Z49" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AA49" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AB49" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AC49" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AD49" s="14">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AE49" s="14">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AF49" s="14">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG49" s="14">
+        <f>-(AG21-N21)</f>
+        <v>0</v>
+      </c>
+      <c r="AH49" s="14">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AI49" s="14">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AJ49" s="14">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AK49" s="14">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AL49" s="14">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>20</v>
       </c>
@@ -5722,111 +6993,147 @@
         <v>3112.3598051503068</v>
       </c>
       <c r="D50" s="14">
-        <f t="shared" ref="D50:AC50" si="16">D22-C22</f>
+        <f t="shared" ref="D50:AL50" si="17">D22-C22</f>
         <v>-1349.083480299334</v>
       </c>
       <c r="E50" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>5442.6470919699641</v>
       </c>
       <c r="F50" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>9151.0655027002795</v>
       </c>
       <c r="G50" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-1738.9437389788218</v>
       </c>
       <c r="H50" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-2699.339931079885</v>
       </c>
       <c r="I50" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-8840.6979586160742</v>
       </c>
       <c r="J50" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-7795.5461585068842</v>
       </c>
       <c r="K50" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-7970.1339649318252</v>
       </c>
       <c r="L50" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-5333.9049153565429</v>
       </c>
       <c r="M50" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-10587.045020041289</v>
       </c>
       <c r="N50" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-5580.9861013629707</v>
       </c>
       <c r="O50" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1063.5933357449248</v>
       </c>
       <c r="P50" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-3141.0161329500843</v>
       </c>
       <c r="Q50" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2764.8999706779723</v>
       </c>
       <c r="R50" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-1214.7578307334334</v>
       </c>
       <c r="S50" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2320.2701972444193</v>
       </c>
       <c r="T50" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1556.3990370546817</v>
       </c>
       <c r="U50" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-2657.6994649691624</v>
       </c>
       <c r="V50" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>46.650020509376191</v>
       </c>
       <c r="W50" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1393.1498605136294</v>
       </c>
       <c r="X50" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-1849.4604042187566</v>
       </c>
       <c r="Y50" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-527.94330626109149</v>
       </c>
       <c r="Z50" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-828.43568730162224</v>
       </c>
       <c r="AA50" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AB50" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-1972.4278343400219</v>
       </c>
       <c r="AC50" s="14">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AD50" s="14">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AE50" s="14">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AF50" s="14">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AG50" s="14">
+        <f>AG22-N22</f>
+        <v>-1849.8868783538928</v>
+      </c>
+      <c r="AH50" s="14">
+        <f t="shared" si="17"/>
+        <v>-4770.6414903287077</v>
+      </c>
+      <c r="AI50" s="14">
+        <f t="shared" si="17"/>
+        <v>-1470.4990181141766</v>
+      </c>
+      <c r="AJ50" s="14">
+        <f t="shared" si="17"/>
+        <v>2743.8681511974428</v>
+      </c>
+      <c r="AK50" s="14">
+        <f t="shared" si="17"/>
+        <v>1588.6039215933997</v>
+      </c>
+      <c r="AL50" s="14">
+        <f t="shared" si="17"/>
+        <v>399.65107597177848</v>
       </c>
     </row>
-    <row r="51" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:38" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="19" t="s">
         <v>4</v>
       </c>
@@ -5836,111 +7143,147 @@
         <v>-165677.11378010013</v>
       </c>
       <c r="D51" s="22">
-        <f t="shared" ref="D51:AC51" si="17">D23-C23</f>
+        <f t="shared" ref="D51:AL51" si="18">D23-C23</f>
         <v>-30155.64123570011</v>
       </c>
       <c r="E51" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>87343.032749900129</v>
       </c>
       <c r="F51" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-50782.315844200319</v>
       </c>
       <c r="G51" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-45451.912054199493</v>
       </c>
       <c r="H51" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>206045.60410019965</v>
       </c>
       <c r="I51" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-155004.3837665997</v>
       </c>
       <c r="J51" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>92617.412226199871</v>
       </c>
       <c r="K51" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>129309.50386249973</v>
       </c>
       <c r="L51" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-167475.54924020031</v>
       </c>
       <c r="M51" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-68478.587260399479</v>
       </c>
       <c r="N51" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>421991.16740590008</v>
       </c>
       <c r="O51" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-444492.36665960029</v>
       </c>
       <c r="P51" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-22883.823352899868</v>
       </c>
       <c r="Q51" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-22620.51098469994</v>
       </c>
       <c r="R51" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-758.52635560021736</v>
       </c>
       <c r="S51" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-6134.5829216998536</v>
       </c>
       <c r="T51" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-24860.9737209999</v>
       </c>
       <c r="U51" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-15752.589502099901</v>
       </c>
       <c r="V51" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>271088.23023400013</v>
       </c>
       <c r="W51" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-12855.798249800457</v>
       </c>
       <c r="X51" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-44942.202662499854</v>
       </c>
       <c r="Y51" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-61157.672211600235</v>
       </c>
       <c r="Z51" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-37414.084301799769</v>
       </c>
       <c r="AA51" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>82181.623982699821</v>
       </c>
       <c r="AB51" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-7714.2840895999689</v>
       </c>
       <c r="AC51" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>17438.565003600204</v>
       </c>
+      <c r="AD51" s="22">
+        <f t="shared" si="18"/>
+        <v>-7848.9534270002041</v>
+      </c>
+      <c r="AE51" s="22">
+        <f t="shared" si="18"/>
+        <v>-33168.713074399857</v>
+      </c>
+      <c r="AF51" s="22">
+        <f t="shared" si="18"/>
+        <v>130.61505700019188</v>
+      </c>
+      <c r="AG51" s="22">
+        <f>AG23-N23</f>
+        <v>-374218.7729313001</v>
+      </c>
+      <c r="AH51" s="22">
+        <f t="shared" si="18"/>
+        <v>38758.812651199987</v>
+      </c>
+      <c r="AI51" s="22">
+        <f t="shared" si="18"/>
+        <v>-1635.5864171001595</v>
+      </c>
+      <c r="AJ51" s="22">
+        <f t="shared" si="18"/>
+        <v>6414.0160175000783</v>
+      </c>
+      <c r="AK51" s="22">
+        <f t="shared" si="18"/>
+        <v>11066.250517400214</v>
+      </c>
+      <c r="AL51" s="22">
+        <f t="shared" si="18"/>
+        <v>11477.448218399892</v>
+      </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>5</v>
       </c>
@@ -5950,111 +7293,147 @@
         <v>-59383.53690019995</v>
       </c>
       <c r="D52" s="14">
-        <f t="shared" ref="D52:AC52" si="18">D24-C24</f>
+        <f t="shared" ref="D52:AL52" si="19">D24-C24</f>
         <v>-6249.2710569000337</v>
       </c>
       <c r="E52" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>5117.2539635999128</v>
       </c>
       <c r="F52" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-5723.7753959000111</v>
       </c>
       <c r="G52" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>10700.112653400167</v>
       </c>
       <c r="H52" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>29350.165547099896</v>
       </c>
       <c r="I52" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>29766.774212200195</v>
       </c>
       <c r="J52" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>15043.516218799865</v>
       </c>
       <c r="K52" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-573.63619839993771</v>
       </c>
       <c r="L52" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-6414.8143827001331</v>
       </c>
       <c r="M52" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-609.39199600007851</v>
       </c>
       <c r="N52" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>63895.809786200058</v>
       </c>
       <c r="O52" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>7943.9741850000573</v>
       </c>
       <c r="P52" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-6594.6580148000503</v>
       </c>
       <c r="Q52" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-9413.0625449999934</v>
       </c>
       <c r="R52" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-6364.6740069000516</v>
       </c>
       <c r="S52" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-6749.2719119999092</v>
       </c>
       <c r="T52" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-3002.9673099999782</v>
       </c>
       <c r="U52" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-4948.3885000000009</v>
       </c>
       <c r="V52" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-4256.5381300001172</v>
       </c>
       <c r="W52" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-2885.2606707998784</v>
       </c>
       <c r="X52" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-700.58972149994224</v>
       </c>
       <c r="Y52" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-4007.9556400001748</v>
       </c>
       <c r="Z52" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-7949.4020499999169</v>
       </c>
       <c r="AA52" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-5609.2009716999019</v>
       </c>
       <c r="AB52" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-4821.8754800000461</v>
       </c>
       <c r="AC52" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1184.877459299867</v>
       </c>
+      <c r="AD52" s="14">
+        <f t="shared" si="19"/>
+        <v>1678.5835000000661</v>
+      </c>
+      <c r="AE52" s="14">
+        <f t="shared" si="19"/>
+        <v>-3235.9551450000145</v>
+      </c>
+      <c r="AF52" s="14">
+        <f t="shared" si="19"/>
+        <v>-1783.6679192999145</v>
+      </c>
+      <c r="AG52" s="14">
+        <f>AG24-N24</f>
+        <v>-59594.909602699918</v>
+      </c>
+      <c r="AH52" s="14">
+        <f t="shared" si="19"/>
+        <v>4940.913611200056</v>
+      </c>
+      <c r="AI52" s="14">
+        <f t="shared" si="19"/>
+        <v>2021.6632499999832</v>
+      </c>
+      <c r="AJ52" s="14">
+        <f t="shared" si="19"/>
+        <v>3120.8472300000722</v>
+      </c>
+      <c r="AK52" s="14">
+        <f t="shared" si="19"/>
+        <v>3973.247999999905</v>
+      </c>
+      <c r="AL52" s="14">
+        <f t="shared" si="19"/>
+        <v>4706.6294100000523</v>
+      </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>14</v>
       </c>
@@ -6064,111 +7443,147 @@
         <v>-86833.387378500018</v>
       </c>
       <c r="D53" s="14">
-        <f t="shared" ref="D53:AC53" si="19">D25-C25</f>
+        <f t="shared" ref="D53:AL53" si="20">D25-C25</f>
         <v>-6423.7477292000549</v>
       </c>
       <c r="E53" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>104190.77689190005</v>
       </c>
       <c r="F53" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-13755.373870600015</v>
       </c>
       <c r="G53" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-62899.059523999982</v>
       </c>
       <c r="H53" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>161659.50203940005</v>
       </c>
       <c r="I53" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-194186.03518180002</v>
       </c>
       <c r="J53" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>42507.642136799986</v>
       </c>
       <c r="K53" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>171522.90170999995</v>
       </c>
       <c r="L53" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-165803.56981310004</v>
       </c>
       <c r="M53" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-64512.850659299933</v>
       </c>
       <c r="N53" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>289788.88849200011</v>
       </c>
       <c r="O53" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-375854.5783671001</v>
       </c>
       <c r="P53" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-12065.274747899995</v>
       </c>
       <c r="Q53" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-10292.89456049999</v>
       </c>
       <c r="R53" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1703.3792531999934</v>
       </c>
       <c r="S53" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>5445.1758210000116</v>
       </c>
       <c r="T53" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-21817.426848000032</v>
       </c>
       <c r="U53" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-10775.269815200008</v>
       </c>
       <c r="V53" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>270749.45561339997</v>
       </c>
       <c r="W53" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-10911.652830299921</v>
       </c>
       <c r="X53" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-53720.688502800069</v>
       </c>
       <c r="Y53" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-58898.708637500007</v>
       </c>
       <c r="Z53" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-26109.150300999929</v>
       </c>
       <c r="AA53" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>91415.706947400002</v>
       </c>
       <c r="AB53" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-22835.155130000028</v>
       </c>
       <c r="AC53" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>13820.89095770003</v>
       </c>
+      <c r="AD53" s="14">
+        <f t="shared" si="20"/>
+        <v>15402.423107499955</v>
+      </c>
+      <c r="AE53" s="14">
+        <f t="shared" si="20"/>
+        <v>-30605.470574699983</v>
+      </c>
+      <c r="AF53" s="14">
+        <f t="shared" si="20"/>
+        <v>-664.99260130000766</v>
+      </c>
+      <c r="AG53" s="14">
+        <f>AG25-N25</f>
+        <v>-240221.99880990008</v>
+      </c>
+      <c r="AH53" s="14">
+        <f t="shared" si="20"/>
+        <v>37914.140076800017</v>
+      </c>
+      <c r="AI53" s="14">
+        <f t="shared" si="20"/>
+        <v>-8525.6317009000923</v>
+      </c>
+      <c r="AJ53" s="14">
+        <f t="shared" si="20"/>
+        <v>5686.3030322000268</v>
+      </c>
+      <c r="AK53" s="14">
+        <f t="shared" si="20"/>
+        <v>8847.5141062000184</v>
+      </c>
+      <c r="AL53" s="14">
+        <f t="shared" si="20"/>
+        <v>6489.4581387999933</v>
+      </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>13</v>
       </c>
@@ -6178,111 +7593,147 @@
         <v>8808.5551820000401</v>
       </c>
       <c r="D54" s="14">
-        <f t="shared" ref="D54:AC54" si="20">D26-C26</f>
+        <f t="shared" ref="D54:AL54" si="21">D26-C26</f>
         <v>-19555.200326499995</v>
       </c>
       <c r="E54" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-18731.871043400082</v>
       </c>
       <c r="F54" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-29965.590035799949</v>
       </c>
       <c r="G54" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>5789.4322084999294</v>
       </c>
       <c r="H54" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>14582.241663800029</v>
       </c>
       <c r="I54" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>7867.7161605000147</v>
       </c>
       <c r="J54" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>33732.521686299995</v>
       </c>
       <c r="K54" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-38371.988568199973</v>
       </c>
       <c r="L54" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3968.957560699957</v>
       </c>
       <c r="M54" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1809.0781376999803</v>
       </c>
       <c r="N54" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>54744.910243400082</v>
       </c>
       <c r="O54" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-62785.375188900041</v>
       </c>
       <c r="P54" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-4222.6864532999462</v>
       </c>
       <c r="Q54" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-2849.3716110000387</v>
       </c>
       <c r="R54" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3694.1049935999326</v>
       </c>
       <c r="S54" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-1429.6922636998934</v>
       </c>
       <c r="T54" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-3013.0831120000221</v>
       </c>
       <c r="U54" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2341.1453460999765</v>
       </c>
       <c r="V54" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3027.1894572000019</v>
       </c>
       <c r="W54" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1060.4663942999905</v>
       </c>
       <c r="X54" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8882.7688963999972</v>
       </c>
       <c r="Y54" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>461.53722980001476</v>
       </c>
       <c r="Z54" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-3511.2628434000071</v>
       </c>
       <c r="AA54" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-3623.6454407999991</v>
       </c>
       <c r="AB54" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>541.30497500003548</v>
       </c>
       <c r="AC54" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2427.226289400016</v>
       </c>
+      <c r="AD54" s="14">
+        <f t="shared" si="21"/>
+        <v>-3607.5077492000419</v>
+      </c>
+      <c r="AE54" s="14">
+        <f t="shared" si="21"/>
+        <v>-233.13137210003333</v>
+      </c>
+      <c r="AF54" s="14">
+        <f t="shared" si="21"/>
+        <v>-435.98891229997389</v>
+      </c>
+      <c r="AG54" s="14">
+        <f>AG26-N26</f>
+        <v>-60138.829715100059</v>
+      </c>
+      <c r="AH54" s="14">
+        <f t="shared" si="21"/>
+        <v>-4477.1262724999688</v>
+      </c>
+      <c r="AI54" s="14">
+        <f t="shared" si="21"/>
+        <v>5341.5658896000241</v>
+      </c>
+      <c r="AJ54" s="14">
+        <f t="shared" si="21"/>
+        <v>-1721.3283047000295</v>
+      </c>
+      <c r="AK54" s="14">
+        <f t="shared" si="21"/>
+        <v>-1898.9014185999404</v>
+      </c>
+      <c r="AL54" s="14">
+        <f t="shared" si="21"/>
+        <v>-638.67184900003485</v>
+      </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>29</v>
       </c>
@@ -6314,8 +7765,17 @@
       <c r="AA55" s="14"/>
       <c r="AB55" s="14"/>
       <c r="AC55" s="14"/>
+      <c r="AD55" s="14"/>
+      <c r="AE55" s="14"/>
+      <c r="AF55" s="14"/>
+      <c r="AG55" s="14"/>
+      <c r="AH55" s="14"/>
+      <c r="AI55" s="14"/>
+      <c r="AJ55" s="14"/>
+      <c r="AK55" s="14"/>
+      <c r="AL55" s="14"/>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>30</v>
       </c>
@@ -6347,8 +7807,17 @@
       <c r="AA56" s="14"/>
       <c r="AB56" s="14"/>
       <c r="AC56" s="14"/>
+      <c r="AD56" s="14"/>
+      <c r="AE56" s="14"/>
+      <c r="AF56" s="14"/>
+      <c r="AG56" s="14"/>
+      <c r="AH56" s="14"/>
+      <c r="AI56" s="14"/>
+      <c r="AJ56" s="14"/>
+      <c r="AK56" s="14"/>
+      <c r="AL56" s="14"/>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>6</v>
       </c>
@@ -6358,111 +7827,147 @@
         <v>-28268.744683400204</v>
       </c>
       <c r="D57" s="14">
-        <f t="shared" ref="D57:AC57" si="21">D29-C29</f>
+        <f t="shared" ref="D57:AL57" si="22">D29-C29</f>
         <v>2072.5778768999735</v>
       </c>
       <c r="E57" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-3233.1270621997537</v>
       </c>
       <c r="F57" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-1337.5765419003437</v>
       </c>
       <c r="G57" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>957.6026079003932</v>
       </c>
       <c r="H57" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>453.69484989967896</v>
       </c>
       <c r="I57" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1547.1610425001127</v>
       </c>
       <c r="J57" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1333.7321843000245</v>
       </c>
       <c r="K57" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-3412.8040099003119</v>
       </c>
       <c r="L57" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>774.86933309989763</v>
       </c>
       <c r="M57" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-5384.9406717994443</v>
       </c>
       <c r="N57" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>12537.049517199825</v>
       </c>
       <c r="O57" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-13793.795327400207</v>
       </c>
       <c r="P57" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-4.1609560998458619</v>
       </c>
       <c r="Q57" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-61.527105499917525</v>
       </c>
       <c r="R57" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1164.3910490998787</v>
       </c>
       <c r="S57" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-3401.4190088000632</v>
       </c>
       <c r="T57" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2973.2214682001322</v>
       </c>
       <c r="U57" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-2375.1469009998691</v>
       </c>
       <c r="V57" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1686.691806100278</v>
       </c>
       <c r="W57" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-119.11214620065039</v>
       </c>
       <c r="X57" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>396.0049875001605</v>
       </c>
       <c r="Y57" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1287.6654839999319</v>
       </c>
       <c r="Z57" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>154.92055200008508</v>
       </c>
       <c r="AA57" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-2.1996460002792446</v>
       </c>
       <c r="AB57" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>19401.706081200071</v>
       </c>
       <c r="AC57" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>4.5855314002910745</v>
       </c>
+      <c r="AD57" s="14">
+        <f t="shared" si="22"/>
+        <v>-21521.044137200188</v>
+      </c>
+      <c r="AE57" s="14">
+        <f t="shared" si="22"/>
+        <v>907.14266950017372</v>
+      </c>
+      <c r="AF57" s="14">
+        <f t="shared" si="22"/>
+        <v>3015.93474720009</v>
+      </c>
+      <c r="AG57" s="14">
+        <f>AG29-N29</f>
+        <v>-13588.11162440005</v>
+      </c>
+      <c r="AH57" s="14">
+        <f t="shared" si="22"/>
+        <v>382.96838849988308</v>
+      </c>
+      <c r="AI57" s="14">
+        <f t="shared" si="22"/>
+        <v>-473.64759290007532</v>
+      </c>
+      <c r="AJ57" s="14">
+        <f t="shared" si="22"/>
+        <v>-672.5673309999911</v>
+      </c>
+      <c r="AK57" s="14">
+        <f t="shared" si="22"/>
+        <v>144.56697610023184</v>
+      </c>
+      <c r="AL57" s="14">
+        <f t="shared" si="22"/>
+        <v>919.94567009988168</v>
+      </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>7</v>
       </c>
@@ -6472,111 +7977,147 @@
         <v>-29524.726904799994</v>
       </c>
       <c r="D58" s="14">
-        <f t="shared" ref="D58:AC58" si="22">D30-C30</f>
+        <f t="shared" ref="D58:AL58" si="23">D30-C30</f>
         <v>2421.9176890999952</v>
       </c>
       <c r="E58" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-4041.4901926999992</v>
       </c>
       <c r="F58" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-427.8291492999997</v>
       </c>
       <c r="G58" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>796.0852698000017</v>
       </c>
       <c r="H58" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>566.45302810000067</v>
       </c>
       <c r="I58" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1090.5009932999965</v>
       </c>
       <c r="J58" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>85.767450500003179</v>
       </c>
       <c r="K58" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-3603.1152099000028</v>
       </c>
       <c r="L58" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>995.14322240000183</v>
       </c>
       <c r="M58" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-4438.4260812999983</v>
       </c>
       <c r="N58" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>13139.641779599997</v>
       </c>
       <c r="O58" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-14570.100064099999</v>
       </c>
       <c r="P58" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>28.383844600000884</v>
       </c>
       <c r="Q58" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>483.30086279999887</v>
       </c>
       <c r="R58" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>412.57779449999907</v>
       </c>
       <c r="S58" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-3036.5852877999978</v>
       </c>
       <c r="T58" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>223.31039639999926</v>
       </c>
       <c r="U58" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>96.149620699999105</v>
       </c>
       <c r="V58" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1668.0809318000001</v>
       </c>
       <c r="W58" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>37.501703700001599</v>
       </c>
       <c r="X58" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>58.491126400000212</v>
       </c>
       <c r="Y58" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1921.9335637999975</v>
       </c>
       <c r="Z58" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-184.24420229999851</v>
       </c>
       <c r="AA58" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-36.086103099998581</v>
       </c>
       <c r="AB58" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>19283.560526899993</v>
       </c>
       <c r="AC58" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-3.6687342000004719</v>
       </c>
+      <c r="AD58" s="14">
+        <f t="shared" si="23"/>
+        <v>-21103.967554099996</v>
+      </c>
+      <c r="AE58" s="14">
+        <f t="shared" si="23"/>
+        <v>118.61471729999903</v>
+      </c>
+      <c r="AF58" s="14">
+        <f t="shared" si="23"/>
+        <v>-290.71908340000027</v>
+      </c>
+      <c r="AG58" s="14">
+        <f>AG30-N30</f>
+        <v>-14773.771752799999</v>
+      </c>
+      <c r="AH58" s="14">
+        <f t="shared" si="23"/>
+        <v>241.1377780999992</v>
+      </c>
+      <c r="AI58" s="14">
+        <f t="shared" si="23"/>
+        <v>343.69283540000106</v>
+      </c>
+      <c r="AJ58" s="14">
+        <f t="shared" si="23"/>
+        <v>-905.6329139999998</v>
+      </c>
+      <c r="AK58" s="14">
+        <f t="shared" si="23"/>
+        <v>102.71178409999993</v>
+      </c>
+      <c r="AL58" s="14">
+        <f t="shared" si="23"/>
+        <v>15.932580700000472</v>
+      </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>8</v>
       </c>
@@ -6586,129 +8127,165 @@
         <v>1255.9822214000003</v>
       </c>
       <c r="D59" s="14">
-        <f t="shared" ref="D59:AC59" si="23">D31-C31</f>
+        <f t="shared" ref="D59:AL59" si="24">D31-C31</f>
         <v>-349.33981220000078</v>
       </c>
       <c r="E59" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>808.36313050000035</v>
       </c>
       <c r="F59" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-909.74739260000024</v>
       </c>
       <c r="G59" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>161.51733809999996</v>
       </c>
       <c r="H59" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-112.75817819999929</v>
       </c>
       <c r="I59" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>456.66004919999978</v>
       </c>
       <c r="J59" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1247.9647337999995</v>
       </c>
       <c r="K59" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>190.31119999999919</v>
       </c>
       <c r="L59" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-220.2738892999987</v>
       </c>
       <c r="M59" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-946.51459050000039</v>
       </c>
       <c r="N59" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-602.59226239999998</v>
       </c>
       <c r="O59" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>776.30473670000038</v>
       </c>
       <c r="P59" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-32.544800700000451</v>
       </c>
       <c r="Q59" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-544.82796829999961</v>
       </c>
       <c r="R59" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>751.81325459999971</v>
       </c>
       <c r="S59" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-364.83372099999951</v>
       </c>
       <c r="T59" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2749.9110718000006</v>
       </c>
       <c r="U59" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-2471.296521700001</v>
       </c>
       <c r="V59" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>18.610874299999978</v>
       </c>
       <c r="W59" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-156.61384990000033</v>
       </c>
       <c r="X59" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>337.51386110000067</v>
       </c>
       <c r="Y59" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-634.26807980000012</v>
       </c>
       <c r="Z59" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>339.16475429999991</v>
       </c>
       <c r="AA59" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>33.886457099999461</v>
       </c>
       <c r="AB59" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>118.14555430000064</v>
       </c>
       <c r="AC59" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.2542656000000534</v>
       </c>
+      <c r="AD59" s="14">
+        <f t="shared" si="24"/>
+        <v>-417.07658309999988</v>
+      </c>
+      <c r="AE59" s="14">
+        <f t="shared" si="24"/>
+        <v>788.52795219999871</v>
+      </c>
+      <c r="AF59" s="14">
+        <f t="shared" si="24"/>
+        <v>3306.6538306000011</v>
+      </c>
+      <c r="AG59" s="14">
+        <f>AG31-N31</f>
+        <v>1185.6601283999998</v>
+      </c>
+      <c r="AH59" s="14">
+        <f t="shared" si="24"/>
+        <v>141.83061040000121</v>
+      </c>
+      <c r="AI59" s="14">
+        <f t="shared" si="24"/>
+        <v>-817.34042830000135</v>
+      </c>
+      <c r="AJ59" s="14">
+        <f t="shared" si="24"/>
+        <v>233.06558300000006</v>
+      </c>
+      <c r="AK59" s="14">
+        <f t="shared" si="24"/>
+        <v>41.855191999999988</v>
+      </c>
+      <c r="AL59" s="14">
+        <f t="shared" si="24"/>
+        <v>904.01308940000035</v>
+      </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A61" s="17"/>
     </row>
-    <row r="62" spans="1:29" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:38" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A63" s="26" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A63" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A63" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -6845,13 +8422,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38C51100-2502-4D76-9F32-9A45D845C244}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60C41967-BBAB-4701-A650-265D07F6153B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C08A471D-BB94-4DFA-B034-C74C497E362A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75DFB10F-E8DD-4823-A2B4-94444691B453}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC8020FA-4510-4395-A04E-02A2EEA3C2E2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38584A2C-BF64-4CB1-A00A-25B3B164AD78}"/>
 </file>